--- a/file formats spark.xlsx
+++ b/file formats spark.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">READ</t>
   </si>
@@ -76,7 +76,45 @@
     <t xml:space="preserve">sequenceFile </t>
   </si>
   <si>
+    <t xml:space="preserve">saveAsSequenceFile not working </t>
+  </si>
+  <si>
     <t xml:space="preserve">JSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">val textDF= a.map(p=&gt;(p.split(",")(0),p.split(",")(1),p.split(",")(2),p.split(",")(3))).toDF
+textDF.toJSON.saveAsTextFile("/user/raviteja7/orders_JSON");
+textDF.write.json("/user/raviteja7/order_json_write")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textDF.toJSON.saveAsTextFile("/user/raviteja7/orders_JSON_BZIP",classOf[org.apache.hadoop.io.compress.BZip2Codec]);
+Compression with write did not work .So always use toJSON.saveAstextFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlContext.setConf("spark.sql.parquet.compression.codec", "gzip")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parquet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">textDF.write.parquet("user/raviteja7/order_parq_gzip")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlContext.setConf("spark.sql.parquet.compression.codec", "gzip")
+textDF.write.parquet("user/raviteja7/order_parq")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as parquet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">import com.databricks.spark.avro._</t>
   </si>
 </sst>
 </file>
@@ -91,6 +129,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,6 +151,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,6 +212,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +226,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -205,50 +253,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="108.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -259,7 +307,7 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -267,10 +315,51 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/file formats spark.xlsx
+++ b/file formats spark.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t xml:space="preserve">READ</t>
   </si>
@@ -76,7 +76,11 @@
     <t xml:space="preserve">sequenceFile </t>
   </si>
   <si>
-    <t xml:space="preserve">saveAsSequenceFile not working </t>
+    <t xml:space="preserve">val seq=a.map(o=&gt;(o.split(",")(0).toInt,o))
+seq.saveAsSequenceFile("order_text_to_seq”)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq.saveAsSequenceFile("order_text_to_seq_bzip", Some(classOf[org.apache.hadoop.io.compress.BZip2Codec])) </t>
   </si>
   <si>
     <t xml:space="preserve">JSON </t>
@@ -98,7 +102,7 @@
     <t xml:space="preserve">Parquet </t>
   </si>
   <si>
-    <t xml:space="preserve">textDF.write.parquet("user/raviteja7/order_parq_gzip")</t>
+    <t xml:space="preserve">textDF.write.parquet("user/raviteja7/order_parq")</t>
   </si>
   <si>
     <t xml:space="preserve">sqlContext.setConf("spark.sql.parquet.compression.codec", "gzip")
@@ -108,13 +112,308 @@
     <t xml:space="preserve">orc </t>
   </si>
   <si>
-    <t xml:space="preserve">same as parquet </t>
+    <t xml:space="preserve">textDF.write.orc("user/raviteja7/order_orc")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlContext.setConf("spark.sql.orc.compression.codec", "gzip")
+textDF.write.orc("user/raviteja7/order_orc")
+</t>
   </si>
   <si>
     <t xml:space="preserve">avro </t>
   </si>
   <si>
-    <t xml:space="preserve">import com.databricks.spark.avro._</t>
+    <t xml:space="preserve">import com.databricks.spark.avro._
+textDF.write.avro("user/raviteja7/order_avro")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlContext.setConf("spark.sql.avro.compression.codec", "gzip")
+textDF.write.orc("user/raviteja7/order_avro")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">val jsonfile=sqlContext.read.json("/user/raviteja7/orders_JSON/part-00000")  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsonfile.rdd.saveAsTextFile("json_text") // do not save in this was , it will save json format as text 
+val jsonFileMap = jsonfile.rdd.map(e =&gt; (e.getString(0) + "," + e.getString(1) + "," + e.getString(2) + "," + e.getString(3)))
+jsonFileMap.saveAsTextFile("jsonmap_text")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsonFileMap.saveAsTextFile("jsonmap_text_gzip",classOf[org.apache.hadoop.io.compress.gzipCodec])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parquet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">val jsonfile=sqlContext.read.json("/user/raviteja7/orders_JSON/part-00000")  
+sqlContext.setConf("spark.sql.parquet.compression.codec", "uncompressed")
+jsonfile.write.parquet("orders_json_to_parq")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val jsonfile=sqlContext.read.json("/user/raviteja7/orders_JSON/part-00000")  
+sqlContext.setConf("spark.sql.parquet.compression.codec", "snappy")
+jsonfile.write.parquet("orders_json_to_parq")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlContext.setConf("spark.sql.orccompression.codec", "uncompressed")
+jsonfile.write.orc("orders_json_to_orc")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlContext.setConf("spark.sql.orc.compression.codec", "gzip")
+jsonfile.write.orc("orders_json_to_orc")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spark-shell --master yarn --packages com.databricks:spark-avro_2.10:2.0.1 --conf spark.ui.port=22343
+import com.databricks.spark.avro._
+//in case if it does not work 
+import com.databricks.spark.avro._
+import org.apache.spark.sql.SQLContext
+val sqlc = new org.apache.spark.sql.SQLContext(sc)
+import sqlc.implicits._
+jsonfile.write.avro("orders_json_to_avro") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlContext.setConf("spark.sql.avro.compression.codec", "gzip")
+ jsonfile.write.avro("orders_json_to_avrocomp")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">val jsonMap = jsonfile.rdd.map(e =&gt; (e.getLong(0), (e.getLong(0) + "," + e.getString(1) + "," + e.getLong(2) + "," + e.getString(3))))
+jsonmap.saveAsSequenceFile("json_sequence")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jsonmap.saveAsSequenceFile("orders_json_to_avrocomp", Some(classOf[org.apache.hadoop.io.compress.BZip2Codec]))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARQUET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">val opar= sqlContext.read.parquet("order_json_to_parq")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">textfile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">val opartextmap =opar.rdd.map(o =&gt; (o.getString(0),o.getString(1),o.getString(2),o.getString(3)))
+ opartextmap.saveAsTextFile("par_txt")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opartextmap.saveAsTextFile("par_txt_cmp",classOf[org.apache.hadoop.io.compress.SnappyCodec])
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foe Json always use toJSON.saveAsTextFile
+val oparMap=opar.map(o=&gt;(o.getString(0),o.getString(1),o.getString(2),o.getString(3)).toDF
+oparMap.toJSON.saveAsTextFile("json_text_saveas")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oparMap.toJSON.saveAsTextFile("json_text_saveas_snappy",classOf[org.apache.hadoop.io.compress.SnappyCodec])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opar.write.orc("par_orc.nomap")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlContext.setConf("spark.sql.orc.compression.codec", "gzip")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opar.write.avro("par_avro.nomap")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val oparseqMap = opar.rdd.map(e =&gt; (e.getString(0), (e.getString(0) + "," + e.getString(1) + "," + e.getString(2) + "," + e.getString(3))))  
+OparseqMap.saveAsSequenceFile("par_sequence")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oparseqMap.saveAsSequenceFile("orders_json_to_avrocomp", Some(classOf[org.apache.hadoop.io.compress.BZip2Codec]))
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">val oorc= sqlContext.read.orc("par_orc.nomap")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val oorctextmap =oorc.rdd.map(o =&gt; (o.getString(0),o.getString(1),o.getString(2),o.getString(3)))
+ oorctextmap.saveAsTextFile("orc_txt")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foe Json always use toJSON.saveAsTextFile
+val oorcMap=oorc.map(o=&gt;(o.getString(0),o.getString(1),o.getString(2),o.getString(3)).toDF
+oorcMap.toJSON.saveAsTextFile("orc_text_saveas")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oorc.write.parquet("orc_par.nomap")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oorc.write.avro("orc_avro.nomap")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val oorcseqMap = oorc.rdd.map(e =&gt; (e.getString(0), (e.getString(0) + "," + e.getString(1) + "," + e.getString(2) + "," + e.getString(3))))  
+ OorcseqMap.saveAsSequenceFile("orc_sequence")</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">oorcseqMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.saveAsSequenceFile("orders_orc_to_seqcomp", Some(classOf[org.apache.hadoop.io.compress.BZip2Codec]))
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AVRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val avrof= sqlContext.read.avro("orc_avro.nomap")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val avromap =avrof.rdd.map(o =&gt; (o.getString(0),o.getString(1),o.getString(2),o.getString(3)))
+ avromap.saveAsTextFile("avro_txt")
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avromap.saveAsTextFile("avro_txt_cmp",classOf[org.apache.hadoop.io.compress.SnappyCodec])
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Foe Json always use toJSON.saveAsTextFile
+val </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">avrofMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">avrof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.map(o=&gt;(o.getString(0),o.getString(1),o.getString(2),o.getString(3))).toDF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AvrofMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.toJSON.saveAsTextFile("avro_json_saveas")
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">avrof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Map.toJSON.saveAsTextFile("json_text_saveas_snappy",classOf[org.apache.hadoop.io.compress.SnappyCodec])</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">avrof.write.parquet("avrof_par.nomap")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avrof.write.avro("avro_avro.nomap")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Val avrofseqMap = oorc.rdd.map(e =&gt; (e.getString(0), (e.getString(0) + "," + e.getString(1) + "," + e.getString(2) + "," + e.getString(3))))  
+AvrofseqMap.saveAsSequenceFile("orc_sequence")</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">avrofseqMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.saveAsSequenceFile("orders_orc_to_seqcomp", Some(classOf[org.apache.hadoop.io.compress.BZip2Codec]))
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -124,7 +423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -153,13 +452,24 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -203,7 +513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,8 +530,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -234,6 +556,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -245,6 +579,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -253,16 +647,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="112.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="108.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -272,31 +666,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="118.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -307,59 +701,349 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="47.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" customFormat="false" ht="47.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="47.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" customFormat="false" ht="47.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
